--- a/Data/Literature data/Final Literature values/Compiled-literature-rates-xl.xlsx
+++ b/Data/Literature data/Final Literature values/Compiled-literature-rates-xl.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phili\Desktop\Github\Photorespiration-temperate-species\Data\Literature data\Final Literature values\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gyrti/Documents/GitHub/Photorespiration-temperate-species/Data/Literature data/Final Literature values/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43214F34-B709-4023-88D6-5CF4CB84DC67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4AAC458-34CB-EA4F-B97C-AEB23C43DD6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7C1DC2BA-26B6-4F7C-9A05-2C363C7B215B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{7C1DC2BA-26B6-4F7C-9A05-2C363C7B215B}"/>
   </bookViews>
   <sheets>
     <sheet name="Compiled-literature-rates" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="91">
   <si>
     <t>ref</t>
   </si>
@@ -43,9 +56,6 @@
     <t>cat.1</t>
   </si>
   <si>
-    <t>var</t>
-  </si>
-  <si>
     <t>jo</t>
   </si>
   <si>
@@ -154,9 +164,6 @@
     <t>Quercus</t>
   </si>
   <si>
-    <t>september value</t>
-  </si>
-  <si>
     <t>Strophioblachia fimbricalyx</t>
   </si>
   <si>
@@ -212,13 +219,100 @@
   </si>
   <si>
     <t>tl2</t>
+  </si>
+  <si>
+    <t>David et al 2025</t>
+  </si>
+  <si>
+    <t>Acer platanoides</t>
+  </si>
+  <si>
+    <t>Betula pendula</t>
+  </si>
+  <si>
+    <t>Betula pubescens</t>
+  </si>
+  <si>
+    <t>Corylus avellana</t>
+  </si>
+  <si>
+    <t>Tilia cordata</t>
+  </si>
+  <si>
+    <t>Scandosorbus intermedia</t>
+  </si>
+  <si>
+    <t>Acer</t>
+  </si>
+  <si>
+    <t>Betula</t>
+  </si>
+  <si>
+    <t>Corylus</t>
+  </si>
+  <si>
+    <t>Tilia</t>
+  </si>
+  <si>
+    <t>Scandosorbus</t>
+  </si>
+  <si>
+    <t>Philip et al 2025</t>
+  </si>
+  <si>
+    <t>Docksta</t>
+  </si>
+  <si>
+    <t>Dunker</t>
+  </si>
+  <si>
+    <t>Nobbele</t>
+  </si>
+  <si>
+    <t>Riningsholm</t>
+  </si>
+  <si>
+    <t>Skelleftea</t>
+  </si>
+  <si>
+    <t>Uppsala</t>
+  </si>
+  <si>
+    <t>Ystad</t>
+  </si>
+  <si>
+    <t>Betula pubescens EC</t>
+  </si>
+  <si>
+    <t>assumed 25C for Tleaf</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>assumed 25C for Tleaf; september value</t>
+  </si>
+  <si>
+    <t>pc</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>p3</t>
+  </si>
+  <si>
+    <t>p4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,6 +443,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1072,15 +1172,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9548E1A-11D7-4FE0-80E8-A8F909D91E2F}">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" customWidth="1"/>
+    <col min="8" max="8" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1100,53 +1215,59 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
       <c r="O1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+      <c r="P1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
         <v>47</v>
       </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>48</v>
       </c>
-      <c r="D2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" t="s">
-        <v>50</v>
-      </c>
       <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2">
         <v>13</v>
       </c>
       <c r="J2">
@@ -1165,26 +1286,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3">
+      <c r="G3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
@@ -1200,26 +1324,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4">
+      <c r="G4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4">
         <v>2</v>
       </c>
       <c r="J4">
@@ -1241,26 +1368,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
         <v>28</v>
       </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>30</v>
       </c>
-      <c r="E5" t="s">
-        <v>31</v>
-      </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5">
         <v>5</v>
       </c>
       <c r="J5">
@@ -1282,33 +1412,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6">
-        <v>6</v>
-      </c>
-      <c r="K6">
-        <v>800</v>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6">
+        <v>16</v>
       </c>
       <c r="L6">
-        <v>0.3</v>
+        <v>0.48</v>
       </c>
       <c r="N6">
         <v>25</v>
@@ -1316,34 +1446,37 @@
       <c r="O6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
         <v>54</v>
       </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>55</v>
       </c>
-      <c r="D7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" t="s">
-        <v>57</v>
-      </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7">
-        <v>16</v>
-      </c>
-      <c r="H7" t="s">
-        <v>58</v>
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7">
+        <v>17</v>
       </c>
       <c r="L7">
-        <v>0.48</v>
+        <v>0.4</v>
       </c>
       <c r="N7">
         <v>25</v>
@@ -1351,72 +1484,87 @@
       <c r="O7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8">
+        <v>14</v>
+      </c>
+      <c r="J8">
+        <v>11.82</v>
+      </c>
+      <c r="K8">
+        <v>1600</v>
+      </c>
+      <c r="L8">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="N8">
+        <v>30</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8">
-        <v>17</v>
-      </c>
-      <c r="H8" t="s">
-        <v>60</v>
-      </c>
-      <c r="L8">
-        <v>0.4</v>
-      </c>
-      <c r="N8">
-        <v>25</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="I9">
-        <v>49.47</v>
+      <c r="J9">
+        <v>9.5</v>
       </c>
       <c r="K9">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="L9">
-        <v>0.497</v>
+        <v>0.32</v>
       </c>
       <c r="N9">
         <v>30</v>
@@ -1424,396 +1572,1961 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10">
-        <v>12</v>
-      </c>
-      <c r="I10">
-        <v>25.26</v>
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="J10">
+        <v>10.6</v>
       </c>
       <c r="K10">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="L10">
-        <v>0.51300000000000001</v>
+        <v>0.372</v>
       </c>
       <c r="N10">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="P10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11">
+        <v>8</v>
+      </c>
+      <c r="J11">
+        <v>6.3</v>
+      </c>
+      <c r="K11">
+        <v>800</v>
+      </c>
+      <c r="L11">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="N11">
+        <v>25</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12">
+        <v>9</v>
+      </c>
+      <c r="J12">
+        <v>8.6</v>
+      </c>
+      <c r="K12">
+        <v>800</v>
+      </c>
+      <c r="L12">
+        <v>0.312</v>
+      </c>
+      <c r="N12">
+        <v>25</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13">
         <v>18</v>
       </c>
-      <c r="G11">
-        <v>14</v>
-      </c>
-      <c r="H11" t="s">
-        <v>52</v>
-      </c>
-      <c r="J11">
-        <v>11.82</v>
-      </c>
-      <c r="K11">
-        <v>1600</v>
-      </c>
-      <c r="L11">
-        <v>0.39800000000000002</v>
-      </c>
-      <c r="N11">
-        <v>30</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12">
-        <v>15</v>
-      </c>
-      <c r="H12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J12">
-        <v>9.5</v>
-      </c>
-      <c r="K12">
-        <v>1600</v>
-      </c>
-      <c r="L12">
-        <v>0.32</v>
-      </c>
-      <c r="N12">
-        <v>30</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="L13">
+        <v>0.27</v>
+      </c>
+      <c r="N13">
         <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13">
-        <v>4</v>
       </c>
       <c r="O13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14">
-        <v>7</v>
-      </c>
-      <c r="J14">
-        <v>10.6</v>
-      </c>
-      <c r="K14">
-        <v>800</v>
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14">
+        <v>19</v>
       </c>
       <c r="L14">
-        <v>0.372</v>
+        <v>0.21</v>
+      </c>
+      <c r="N14">
+        <v>25</v>
       </c>
       <c r="O14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15">
-        <v>8</v>
-      </c>
-      <c r="J15">
-        <v>6.3</v>
+        <v>23</v>
+      </c>
+      <c r="G15" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15">
+        <v>6</v>
       </c>
       <c r="K15">
         <v>800</v>
       </c>
       <c r="L15">
-        <v>0.26300000000000001</v>
+        <v>0.3</v>
+      </c>
+      <c r="N15">
+        <v>25</v>
       </c>
       <c r="O15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>49.47</v>
+      </c>
+      <c r="K16">
+        <v>1500</v>
+      </c>
+      <c r="L16">
+        <v>0.497</v>
+      </c>
+      <c r="N16">
+        <v>30</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="C16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16">
-        <v>9</v>
-      </c>
-      <c r="J16">
-        <v>8.6</v>
-      </c>
-      <c r="K16">
-        <v>800</v>
-      </c>
-      <c r="L16">
-        <v>0.312</v>
-      </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>41</v>
-      </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17">
+        <v>12</v>
+      </c>
+      <c r="I17">
+        <v>25.26</v>
+      </c>
+      <c r="K17">
+        <v>1500</v>
+      </c>
+      <c r="L17">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="N17">
+        <v>30</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="F17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17">
-        <v>10</v>
-      </c>
-      <c r="H17" t="s">
-        <v>44</v>
-      </c>
-      <c r="I17">
-        <v>29.32</v>
-      </c>
-      <c r="L17">
-        <v>0.82699999999999996</v>
-      </c>
-      <c r="M17">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="O17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>41</v>
-      </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18">
-        <v>11</v>
-      </c>
-      <c r="H18" t="s">
-        <v>44</v>
-      </c>
-      <c r="J18">
-        <v>3.14</v>
-      </c>
-      <c r="L18">
-        <v>0.622</v>
-      </c>
-      <c r="M18">
-        <v>4.7E-2</v>
+        <v>23</v>
+      </c>
+      <c r="G18" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18">
+        <v>4</v>
+      </c>
+      <c r="N18">
+        <v>25</v>
       </c>
       <c r="O18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="E19" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="G19" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19">
+        <v>10</v>
+      </c>
+      <c r="I19">
+        <v>29.32</v>
       </c>
       <c r="L19">
-        <v>0.27</v>
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="M19">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="N19">
+        <v>25</v>
       </c>
       <c r="O19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="E20" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="G20" t="s">
+        <v>88</v>
+      </c>
+      <c r="H20">
+        <v>11</v>
+      </c>
+      <c r="J20">
+        <v>3.14</v>
       </c>
       <c r="L20">
-        <v>0.21</v>
+        <v>0.622</v>
+      </c>
+      <c r="M20">
+        <v>4.7E-2</v>
+      </c>
+      <c r="N20">
+        <v>25</v>
       </c>
       <c r="O20">
         <v>1</v>
       </c>
+      <c r="P20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" t="s">
+        <v>89</v>
+      </c>
+      <c r="K21">
+        <v>1500</v>
+      </c>
+      <c r="L21">
+        <v>0.40708462883333335</v>
+      </c>
+      <c r="M21">
+        <v>8.5458390213219645E-2</v>
+      </c>
+      <c r="N21">
+        <v>25</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" t="s">
+        <v>89</v>
+      </c>
+      <c r="K22">
+        <v>1500</v>
+      </c>
+      <c r="L22">
+        <v>0.32640253050000001</v>
+      </c>
+      <c r="M22">
+        <v>0.11486655960624255</v>
+      </c>
+      <c r="N22">
+        <v>25</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" t="s">
+        <v>89</v>
+      </c>
+      <c r="K23">
+        <v>1500</v>
+      </c>
+      <c r="L23">
+        <v>0.62147882720000003</v>
+      </c>
+      <c r="M23">
+        <v>2.7656876445517346E-2</v>
+      </c>
+      <c r="N23">
+        <v>25</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" t="s">
+        <v>89</v>
+      </c>
+      <c r="K24">
+        <v>1500</v>
+      </c>
+      <c r="L24">
+        <v>0.50486409871428573</v>
+      </c>
+      <c r="M24">
+        <v>0.16339345581294604</v>
+      </c>
+      <c r="N24">
+        <v>25</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" t="s">
+        <v>89</v>
+      </c>
+      <c r="K25">
+        <v>1500</v>
+      </c>
+      <c r="L25">
+        <v>0.47839346587499998</v>
+      </c>
+      <c r="M25">
+        <v>0.11349307423204338</v>
+      </c>
+      <c r="N25">
+        <v>25</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" t="s">
+        <v>89</v>
+      </c>
+      <c r="K26">
+        <v>1500</v>
+      </c>
+      <c r="L26">
+        <v>0.60779022441176467</v>
+      </c>
+      <c r="M26">
+        <v>7.4665630689064927E-2</v>
+      </c>
+      <c r="N26">
+        <v>25</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" t="s">
+        <v>89</v>
+      </c>
+      <c r="K27">
+        <v>1500</v>
+      </c>
+      <c r="L27">
+        <v>0.55639299949999999</v>
+      </c>
+      <c r="M27">
+        <v>8.9963392330676226E-2</v>
+      </c>
+      <c r="N27">
+        <v>30</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" t="s">
+        <v>89</v>
+      </c>
+      <c r="K28">
+        <v>1500</v>
+      </c>
+      <c r="L28">
+        <v>0.7605633757500001</v>
+      </c>
+      <c r="M28">
+        <v>0.13990753798352426</v>
+      </c>
+      <c r="N28">
+        <v>30</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" t="s">
+        <v>89</v>
+      </c>
+      <c r="K29">
+        <v>1500</v>
+      </c>
+      <c r="L29">
+        <v>0.62728428140000003</v>
+      </c>
+      <c r="M29">
+        <v>1.9972531594233747E-2</v>
+      </c>
+      <c r="N29">
+        <v>30</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" t="s">
+        <v>89</v>
+      </c>
+      <c r="K30">
+        <v>1500</v>
+      </c>
+      <c r="L30">
+        <v>0.73735304899999998</v>
+      </c>
+      <c r="M30">
+        <v>0.11574200776475073</v>
+      </c>
+      <c r="N30">
+        <v>30</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" t="s">
+        <v>89</v>
+      </c>
+      <c r="K31">
+        <v>1500</v>
+      </c>
+      <c r="L31">
+        <v>0.645687342</v>
+      </c>
+      <c r="M31">
+        <v>5.2129561757896271E-2</v>
+      </c>
+      <c r="N31">
+        <v>30</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" t="s">
+        <v>89</v>
+      </c>
+      <c r="K32">
+        <v>1500</v>
+      </c>
+      <c r="L32">
+        <v>0.7275118008</v>
+      </c>
+      <c r="M32">
+        <v>0.12563740427341477</v>
+      </c>
+      <c r="N32">
+        <v>30</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" t="s">
+        <v>89</v>
+      </c>
+      <c r="K33">
+        <v>1500</v>
+      </c>
+      <c r="L33">
+        <v>0.64211461300000006</v>
+      </c>
+      <c r="M33">
+        <v>6.4733753875461708E-2</v>
+      </c>
+      <c r="N33">
+        <v>30</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" t="s">
+        <v>89</v>
+      </c>
+      <c r="K34">
+        <v>1500</v>
+      </c>
+      <c r="L34">
+        <v>0.9073222411428572</v>
+      </c>
+      <c r="M34">
+        <v>0.17382239855980891</v>
+      </c>
+      <c r="N34">
+        <v>35</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" t="s">
+        <v>89</v>
+      </c>
+      <c r="K35">
+        <v>1500</v>
+      </c>
+      <c r="L35">
+        <v>0.74217970487499996</v>
+      </c>
+      <c r="M35">
+        <v>6.6893873184506306E-2</v>
+      </c>
+      <c r="N35">
+        <v>35</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" t="s">
+        <v>23</v>
+      </c>
+      <c r="G36" t="s">
+        <v>89</v>
+      </c>
+      <c r="K36">
+        <v>1500</v>
+      </c>
+      <c r="L36">
+        <v>0.59316722300000002</v>
+      </c>
+      <c r="M36">
+        <v>4.7412275092340063E-2</v>
+      </c>
+      <c r="N36">
+        <v>35</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" t="s">
+        <v>23</v>
+      </c>
+      <c r="G37" t="s">
+        <v>89</v>
+      </c>
+      <c r="K37">
+        <v>1500</v>
+      </c>
+      <c r="L37">
+        <v>0.98956856816666672</v>
+      </c>
+      <c r="M37">
+        <v>5.969473157284455E-2</v>
+      </c>
+      <c r="N37">
+        <v>35</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38" t="s">
+        <v>89</v>
+      </c>
+      <c r="K38">
+        <v>1500</v>
+      </c>
+      <c r="L38">
+        <v>1.0261274218333332</v>
+      </c>
+      <c r="M38">
+        <v>8.1647019428877893E-2</v>
+      </c>
+      <c r="N38">
+        <v>35</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" t="s">
+        <v>73</v>
+      </c>
+      <c r="E39" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" t="s">
+        <v>23</v>
+      </c>
+      <c r="G39" t="s">
+        <v>89</v>
+      </c>
+      <c r="K39">
+        <v>1500</v>
+      </c>
+      <c r="L39">
+        <v>0.7223832778</v>
+      </c>
+      <c r="M39">
+        <v>6.5137888674199382E-2</v>
+      </c>
+      <c r="N39">
+        <v>35</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" t="s">
+        <v>23</v>
+      </c>
+      <c r="G40" t="s">
+        <v>89</v>
+      </c>
+      <c r="K40">
+        <v>1500</v>
+      </c>
+      <c r="L40">
+        <v>0.74585057033333335</v>
+      </c>
+      <c r="M40">
+        <v>7.2178722542645846E-2</v>
+      </c>
+      <c r="N40">
+        <v>35</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" t="s">
+        <v>75</v>
+      </c>
+      <c r="E41" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" t="s">
+        <v>23</v>
+      </c>
+      <c r="G41" t="s">
+        <v>90</v>
+      </c>
+      <c r="K41">
+        <v>1500</v>
+      </c>
+      <c r="L41">
+        <v>0.67321855166457989</v>
+      </c>
+      <c r="M41">
+        <v>7.5283274725457927E-2</v>
+      </c>
+      <c r="N41">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42" t="s">
+        <v>76</v>
+      </c>
+      <c r="E42" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" t="s">
+        <v>23</v>
+      </c>
+      <c r="G42" t="s">
+        <v>90</v>
+      </c>
+      <c r="K42">
+        <v>1500</v>
+      </c>
+      <c r="L42">
+        <v>0.5498326200238024</v>
+      </c>
+      <c r="M42">
+        <v>4.4136293798574373E-2</v>
+      </c>
+      <c r="N42">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43" t="s">
+        <v>77</v>
+      </c>
+      <c r="E43" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43" t="s">
+        <v>23</v>
+      </c>
+      <c r="G43" t="s">
+        <v>90</v>
+      </c>
+      <c r="K43">
+        <v>1500</v>
+      </c>
+      <c r="L43">
+        <v>0.49515035156146603</v>
+      </c>
+      <c r="M43">
+        <v>1.5737945662993805E-2</v>
+      </c>
+      <c r="N43">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44" t="s">
+        <v>78</v>
+      </c>
+      <c r="E44" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" t="s">
+        <v>23</v>
+      </c>
+      <c r="G44" t="s">
+        <v>90</v>
+      </c>
+      <c r="K44">
+        <v>1500</v>
+      </c>
+      <c r="L44">
+        <v>0.71624084155013035</v>
+      </c>
+      <c r="M44">
+        <v>8.8273539776087928E-2</v>
+      </c>
+      <c r="N44">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" t="s">
+        <v>82</v>
+      </c>
+      <c r="D45" t="s">
+        <v>79</v>
+      </c>
+      <c r="E45" t="s">
+        <v>23</v>
+      </c>
+      <c r="F45" t="s">
+        <v>23</v>
+      </c>
+      <c r="G45" t="s">
+        <v>90</v>
+      </c>
+      <c r="K45">
+        <v>1500</v>
+      </c>
+      <c r="L45">
+        <v>0.54642440326112096</v>
+      </c>
+      <c r="M45">
+        <v>3.0794927051398344E-2</v>
+      </c>
+      <c r="N45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" t="s">
+        <v>80</v>
+      </c>
+      <c r="E46" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46" t="s">
+        <v>23</v>
+      </c>
+      <c r="G46" t="s">
+        <v>90</v>
+      </c>
+      <c r="K46">
+        <v>1500</v>
+      </c>
+      <c r="L46">
+        <v>0.60907291312555079</v>
+      </c>
+      <c r="M46">
+        <v>3.1911233951655425E-2</v>
+      </c>
+      <c r="N46">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" t="s">
+        <v>82</v>
+      </c>
+      <c r="D47" t="s">
+        <v>81</v>
+      </c>
+      <c r="E47" t="s">
+        <v>23</v>
+      </c>
+      <c r="F47" t="s">
+        <v>23</v>
+      </c>
+      <c r="G47" t="s">
+        <v>90</v>
+      </c>
+      <c r="K47">
+        <v>1500</v>
+      </c>
+      <c r="L47">
+        <v>0.54293905599458581</v>
+      </c>
+      <c r="M47">
+        <v>3.6384536725655191E-2</v>
+      </c>
+      <c r="N47">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" t="s">
+        <v>82</v>
+      </c>
+      <c r="D48" t="s">
+        <v>75</v>
+      </c>
+      <c r="E48" t="s">
+        <v>23</v>
+      </c>
+      <c r="F48" t="s">
+        <v>23</v>
+      </c>
+      <c r="G48" t="s">
+        <v>90</v>
+      </c>
+      <c r="K48">
+        <v>1500</v>
+      </c>
+      <c r="L48">
+        <v>0.7178064319321833</v>
+      </c>
+      <c r="M48">
+        <v>3.1694948730108127E-2</v>
+      </c>
+      <c r="N48">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" t="s">
+        <v>82</v>
+      </c>
+      <c r="D49" t="s">
+        <v>76</v>
+      </c>
+      <c r="E49" t="s">
+        <v>23</v>
+      </c>
+      <c r="F49" t="s">
+        <v>23</v>
+      </c>
+      <c r="G49" t="s">
+        <v>90</v>
+      </c>
+      <c r="K49">
+        <v>1500</v>
+      </c>
+      <c r="L49">
+        <v>0.48365116843113737</v>
+      </c>
+      <c r="M49">
+        <v>0.10654351220509148</v>
+      </c>
+      <c r="N49">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" t="s">
+        <v>82</v>
+      </c>
+      <c r="D50" t="s">
+        <v>77</v>
+      </c>
+      <c r="E50" t="s">
+        <v>23</v>
+      </c>
+      <c r="F50" t="s">
+        <v>23</v>
+      </c>
+      <c r="G50" t="s">
+        <v>90</v>
+      </c>
+      <c r="K50">
+        <v>1500</v>
+      </c>
+      <c r="L50">
+        <v>0.60763920843128105</v>
+      </c>
+      <c r="M50">
+        <v>6.2225858109530886E-2</v>
+      </c>
+      <c r="N50">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" t="s">
+        <v>82</v>
+      </c>
+      <c r="D51" t="s">
+        <v>78</v>
+      </c>
+      <c r="E51" t="s">
+        <v>23</v>
+      </c>
+      <c r="F51" t="s">
+        <v>23</v>
+      </c>
+      <c r="G51" t="s">
+        <v>90</v>
+      </c>
+      <c r="K51">
+        <v>1500</v>
+      </c>
+      <c r="L51">
+        <v>0.69202563529247729</v>
+      </c>
+      <c r="M51">
+        <v>5.1459749229260845E-2</v>
+      </c>
+      <c r="N51">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>74</v>
+      </c>
+      <c r="B52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" t="s">
+        <v>82</v>
+      </c>
+      <c r="D52" t="s">
+        <v>79</v>
+      </c>
+      <c r="E52" t="s">
+        <v>23</v>
+      </c>
+      <c r="F52" t="s">
+        <v>23</v>
+      </c>
+      <c r="G52" t="s">
+        <v>90</v>
+      </c>
+      <c r="K52">
+        <v>1500</v>
+      </c>
+      <c r="L52">
+        <v>0.6216862688003143</v>
+      </c>
+      <c r="M52">
+        <v>6.4789732945258277E-2</v>
+      </c>
+      <c r="N52">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>74</v>
+      </c>
+      <c r="B53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" t="s">
+        <v>82</v>
+      </c>
+      <c r="D53" t="s">
+        <v>80</v>
+      </c>
+      <c r="E53" t="s">
+        <v>23</v>
+      </c>
+      <c r="F53" t="s">
+        <v>23</v>
+      </c>
+      <c r="G53" t="s">
+        <v>90</v>
+      </c>
+      <c r="K53">
+        <v>1500</v>
+      </c>
+      <c r="L53">
+        <v>0.62728428160848437</v>
+      </c>
+      <c r="M53">
+        <v>1.9972531563060277E-2</v>
+      </c>
+      <c r="N53">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" t="s">
+        <v>82</v>
+      </c>
+      <c r="D54" t="s">
+        <v>81</v>
+      </c>
+      <c r="E54" t="s">
+        <v>23</v>
+      </c>
+      <c r="F54" t="s">
+        <v>23</v>
+      </c>
+      <c r="G54" t="s">
+        <v>90</v>
+      </c>
+      <c r="K54">
+        <v>1500</v>
+      </c>
+      <c r="L54">
+        <v>0.58778406746890099</v>
+      </c>
+      <c r="M54">
+        <v>5.0507973086704384E-2</v>
+      </c>
+      <c r="N54">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>74</v>
+      </c>
+      <c r="B55" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" t="s">
+        <v>82</v>
+      </c>
+      <c r="D55" t="s">
+        <v>75</v>
+      </c>
+      <c r="E55" t="s">
+        <v>23</v>
+      </c>
+      <c r="F55" t="s">
+        <v>23</v>
+      </c>
+      <c r="G55" t="s">
+        <v>90</v>
+      </c>
+      <c r="K55">
+        <v>1500</v>
+      </c>
+      <c r="L55">
+        <v>0.80566962373077722</v>
+      </c>
+      <c r="M55">
+        <v>0.10715084355634913</v>
+      </c>
+      <c r="N55">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" t="s">
+        <v>82</v>
+      </c>
+      <c r="D56" t="s">
+        <v>76</v>
+      </c>
+      <c r="E56" t="s">
+        <v>23</v>
+      </c>
+      <c r="F56" t="s">
+        <v>23</v>
+      </c>
+      <c r="G56" t="s">
+        <v>90</v>
+      </c>
+      <c r="K56">
+        <v>1500</v>
+      </c>
+      <c r="L56">
+        <v>0.83488282847483175</v>
+      </c>
+      <c r="M56">
+        <v>0.21361339645138602</v>
+      </c>
+      <c r="N56">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" t="s">
+        <v>82</v>
+      </c>
+      <c r="D57" t="s">
+        <v>77</v>
+      </c>
+      <c r="E57" t="s">
+        <v>23</v>
+      </c>
+      <c r="F57" t="s">
+        <v>23</v>
+      </c>
+      <c r="G57" t="s">
+        <v>90</v>
+      </c>
+      <c r="K57">
+        <v>1500</v>
+      </c>
+      <c r="L57">
+        <v>0.70233399202794988</v>
+      </c>
+      <c r="M57">
+        <v>0.18853156533230792</v>
+      </c>
+      <c r="N57">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" t="s">
+        <v>82</v>
+      </c>
+      <c r="D58" t="s">
+        <v>78</v>
+      </c>
+      <c r="E58" t="s">
+        <v>23</v>
+      </c>
+      <c r="F58" t="s">
+        <v>23</v>
+      </c>
+      <c r="G58" t="s">
+        <v>90</v>
+      </c>
+      <c r="K58">
+        <v>1500</v>
+      </c>
+      <c r="L58">
+        <v>0.70716012541819384</v>
+      </c>
+      <c r="M58">
+        <v>0.10988917138439178</v>
+      </c>
+      <c r="N58">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" t="s">
+        <v>82</v>
+      </c>
+      <c r="D59" t="s">
+        <v>79</v>
+      </c>
+      <c r="E59" t="s">
+        <v>23</v>
+      </c>
+      <c r="F59" t="s">
+        <v>23</v>
+      </c>
+      <c r="G59" t="s">
+        <v>90</v>
+      </c>
+      <c r="K59">
+        <v>1500</v>
+      </c>
+      <c r="L59">
+        <v>0.75189247458094743</v>
+      </c>
+      <c r="M59">
+        <v>0.10438680688041814</v>
+      </c>
+      <c r="N59">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" t="s">
+        <v>82</v>
+      </c>
+      <c r="D60" t="s">
+        <v>80</v>
+      </c>
+      <c r="E60" t="s">
+        <v>23</v>
+      </c>
+      <c r="F60" t="s">
+        <v>23</v>
+      </c>
+      <c r="G60" t="s">
+        <v>90</v>
+      </c>
+      <c r="K60">
+        <v>1500</v>
+      </c>
+      <c r="L60">
+        <v>0.59316722302488167</v>
+      </c>
+      <c r="M60">
+        <v>4.7412275178847954E-2</v>
+      </c>
+      <c r="N60">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>74</v>
+      </c>
+      <c r="B61" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" t="s">
+        <v>82</v>
+      </c>
+      <c r="D61" t="s">
+        <v>81</v>
+      </c>
+      <c r="E61" t="s">
+        <v>23</v>
+      </c>
+      <c r="F61" t="s">
+        <v>23</v>
+      </c>
+      <c r="G61" t="s">
+        <v>90</v>
+      </c>
+      <c r="K61">
+        <v>1500</v>
+      </c>
+      <c r="L61">
+        <v>0.74424321752595723</v>
+      </c>
+      <c r="M61">
+        <v>0.10185009912172362</v>
+      </c>
+      <c r="N61">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O20">
-    <sortCondition ref="N2:N20"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P61">
+    <sortCondition ref="F2:F61"/>
   </sortState>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>